--- a/xamshiralar ro`yxati.xlsx
+++ b/xamshiralar ro`yxati.xlsx
@@ -35,19 +35,19 @@
     <t>3</t>
   </si>
   <si>
-    <t>Abdullayeva Marjona</t>
+    <t>Abdullayeva Maftuna</t>
   </si>
   <si>
-    <t>+998901233212</t>
+    <t>+998971234566</t>
   </si>
   <si>
-    <t>1221</t>
+    <t>1234</t>
   </si>
   <si>
     <t>NURSE</t>
   </si>
   <si>
-    <t>BLOCK</t>
+    <t>ACTIVE</t>
   </si>
 </sst>
 </file>
